--- a/templates/global_report_template v3.1.xlsx
+++ b/templates/global_report_template v3.1.xlsx
@@ -451,6 +451,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -498,18 +510,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -795,13 +795,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -813,57 +813,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="30"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -916,41 +916,34 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="18">
+        <f>SUM(C9:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
+        <f>SUM(D9:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
+        <f>SUM(E9:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <f>SUM(F9:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <f>SUM(G9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="31">
-        <f>SUM(C9:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="31">
-        <f t="shared" ref="D11:G11" si="0">SUM(D9:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="29"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="12"/>
@@ -963,9 +956,6 @@
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H8"/>
